--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>testname</t>
   </si>
@@ -51,18 +51,21 @@
     <t>To check wheter the user can successfully login and logout</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>newTest</t>
+  </si>
+  <si>
+    <t>To check wheter this test is executed</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>newTest</t>
-  </si>
-  <si>
-    <t>To check wheter this test is executed</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -96,13 +99,13 @@
     <t>amuthan</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>testing mini bytes</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Admin123</t>
   </si>
   <si>
     <t>subscribe</t>
@@ -1044,7 +1047,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1098,10 +1101,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1119,7 +1122,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1140,56 +1143,56 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1197,19 +1200,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1217,39 +1220,39 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
